--- a/medicine/Enfance/Lina_Roth/Lina_Roth.xlsx
+++ b/medicine/Enfance/Lina_Roth/Lina_Roth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lina Roth (née le 8 février 1877 à Rueil-Malmaison (Hauts-de-Seine), décédée le 2 septembre 1962 à Moulins) est un auteur français pour la jeunesse. Institutrice et musicienne, elle a également contribué au développement de l'usage du pipeau dans les établissements scolaires : René Barjavel la surnomma « la mère du pipeau »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lina Roth (née le 8 février 1877 à Rueil-Malmaison (Hauts-de-Seine), décédée le 2 septembre 1962 à Moulins) est un auteur français pour la jeunesse. Institutrice et musicienne, elle a également contribué au développement de l'usage du pipeau dans les établissements scolaires : René Barjavel la surnomma « la mère du pipeau ».
 Elle a publié de nombreux recueils d'histoires pour enfants et de contes, ainsi que des pièces de théâtre (saynètes) pour les enfants, et un roman autobiographique : Mademoiselle Amélie : histoire d'une institutrice (Ed. du Cep beaujolais, 1956).
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(Liste non exhaustive)
 Chansons pour la pluie et le beau temps (Nathan, 1932)
 Tous musiciens : petit cours de pipeau en cinq leçons précédé de quelques notions essentielles de solfège (Nathan, 1933)
-Histoires de cette maison-là (SUDEL, 1937) [2]
+Histoires de cette maison-là (SUDEL, 1937) 
 Grosmalin orateur (Billaudot, 1938)
 Claudette ménagère : saynète pour deux petites filles (Cep beaujolais, 1949)
 La farce du dindon, d'après un texte du Moyen Âge (Billaudot, 1952)
@@ -552,7 +566,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nic Diament, Dictionnaire des écrivains français pour la jeunesse : 1914-1991, Paris, L'École des loisirs, 1993, 783 p. (ISBN 2-211-07125-2 et 978-2-211-07125-3)
 Claudette et la Fête des Mères, suivie de Popaul est méconnu, feuille imprimée recto verso et éditée par les Éditions du Cep Beaujolais (date non spécifiée sur le document).</t>
